--- a/data/trans_bre/P25A_4_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_4_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-36,29%</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>-34,32%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38,3%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-36,24%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30,32%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51,04%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,67</t>
+          <t>-1,35; 1,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,59</t>
+          <t>-3,2; 0,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,84</t>
+          <t>-1,12; 1,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 37,49</t>
+          <t>-2,66; 0,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-68,38; 397,95</t>
+          <t>-0,97; 2,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,18; 47,65</t>
+          <t>-1,1; 2,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-66,79; 306,13</t>
+          <t>-73,21; 272,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 95,64</t>
+          <t>-74,94; 61,4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-56,03; 255,76</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-70,46; 19,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-28,66; 152,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-49,23; 415,6</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,47</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-32,09%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>30,33%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-8,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-10,85%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>271,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-42,73%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,44</t>
+          <t>-0,85; 4,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,21</t>
+          <t>-1,01; 2,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,62</t>
+          <t>-2,14; 3,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 57,86</t>
+          <t>-3,56; 2,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 6,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,0; 356,82</t>
+          <t>-2,56; 0,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-88,34; 239,85</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 227,78</t>
+          <t>-58,18; 372,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-85,1; 411,13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-76,89; 186,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-18,8; 1752,32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-84,12; 55,24</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-47,41%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-27,15%</t>
+          <t>-44,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-26,87%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>405,91%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 2,11</t>
+          <t>-8,08; 2,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,01</t>
+          <t>-2,74; 3,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,5</t>
+          <t>-5,23; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,20 +1020,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-89,52; 176,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>-0,18; 7,69</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-92,49; 185,71</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-92,58; 280,32</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-90,54; 232,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,41</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,65%</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>-10,73%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-30,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>58,99%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,12</t>
+          <t>-1,2; 1,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,8</t>
+          <t>-1,44; 0,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,09</t>
+          <t>-1,11; 1,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 33,99</t>
+          <t>-2,27; 0,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,49; 132,04</t>
+          <t>-0,16; 2,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,0; 61,11</t>
+          <t>-0,81; 1,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,35; 104,62</t>
+          <t>-59,54; 125,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 87,36</t>
+          <t>-52,17; 64,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-49,69; 131,01</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-60,26; 22,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 168,62</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-39,77; 131,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_4_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_4_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-34,32%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>38,3%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-36,24%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>30,32%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>51,04%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.01210377683649073</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.034847962057612</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3209745350334947</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.016798511311114</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.8366942539624077</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.6391558112919655</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.01044915946954546</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.394540472897825</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2163785288502061</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.3623992833133652</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.3310190537052111</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.4020585294264735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 1,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 0,71</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 1,7</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 0,32</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 2,65</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 2,69</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-73,21; 272,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-74,94; 61,4</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-56,03; 255,76</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-70,46; 19,61</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-28,66; 152,28</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-49,23; 415,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.29341882355315</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.456577046107564</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.565195641829034</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.663184635957795</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.8468439565980365</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-1.244552241668627</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7209429003487214</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.763352726737301</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.6430517423126492</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.7046397750588104</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2737096928915152</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.5397481907628784</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.290068703113254</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.5870713192408957</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.530567537486637</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.3169865393102079</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.734370222603514</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.624806292934901</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.812498151378668</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5162139222869413</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.205973552003416</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1961166488780161</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.582941765148796</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>3.872082351327413</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>65,41%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>30,33%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-8,46%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-10,85%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>271,01%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-42,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 4,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 2,58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 3,93</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,56; 2,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 6,2</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 0,51</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-58,18; 372,21</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-85,1; 411,13</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-76,89; 186,98</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-18,8; 1752,32</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-84,12; 55,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2588069044358842</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4011185682107423</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.3814965099107326</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3127757422592022</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.865220130695555</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.8799669864517979</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2966283885044677</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2940570386041013</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1856582118486299</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1085356395968997</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>2.503177224395359</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.4263949703062923</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,3</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-44,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13,85%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-26,87%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>405,91%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.9625612676049897</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.9868500158633318</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.453219365949706</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.559497935611609</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.3327932709462207</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-2.584151375217422</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5840276981804123</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.8596432467980601</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.7688510249496479</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2601995092937767</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.8426174514586373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 2,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 3,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 2,35</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 7,69</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-92,49; 185,71</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-90,54; 232,65</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.845548075299624</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.365817516798848</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.191113436972092</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.225628245215473</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.906702185084249</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.5222225172794742</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>10.15609793908199</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.673656201577173</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.361813046842893</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.869790134181322</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>16.42600829934884</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.5424043176694727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,237 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-5,45%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-10,73%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-30,67%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>58,99%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>19,26%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.926661920114596</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.2805982165822396</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.7836578048615431</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>2.25768778144344</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4351478465541184</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1649276942135907</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2603528068489785</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>3.994951104101567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 1,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 0,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 1,63</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 0,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 2,8</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 1,47</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-59,54; 125,14</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-52,17; 64,45</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-49,69; 131,01</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-60,26; 22,94</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-9,27; 168,62</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-39,77; 131,68</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.701483643270323</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.422514569850611</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.239906551973393</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.2045024588899755</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.9113794128531726</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-0.9135093167320634</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.34375972344289</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.308667696608843</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.348115197557396</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>7.561136717584173</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.876191863654517</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>2.272540367511855</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.1386295032610549</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.3059815385144632</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.09693786745399967</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.8659768542087147</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.315528843848768</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2386259369141656</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.09592737182191717</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1525353778216715</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.05103931265246995</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.3066518815267257</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.6003250448147438</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1442438971408919</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.129786574094205</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.576354501995819</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.331443676060355</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.268853154749405</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1347120441642369</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.9047315270940952</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5892078600437863</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5475789422279411</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.5350573984371962</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.6025790414052755</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.08604349214287771</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.4194263626401046</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.9803840490115459</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7152096612713452</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.348191864089344</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4106063080001118</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.810146250394291</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.382135454516114</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.128596873617658</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5357016973617929</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.103800235763807</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2294196162140549</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.738028905977625</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.262006327214462</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1169,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
